--- a/cronogramaSegundaEntrega.xlsx
+++ b/cronogramaSegundaEntrega.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\Documents\pessoal\senai\MobShare-Diversos-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Documents\senai\quarto_semestre\MobShare-Diversos-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Leonardo</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>UML</t>
+  </si>
+  <si>
+    <t>Kaio, Igor</t>
+  </si>
+  <si>
+    <t>Sarah, Manu, Leonardo</t>
   </si>
 </sst>
 </file>
@@ -439,13 +445,13 @@
   <dimension ref="G3:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="20.140625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.28515625" customWidth="1"/>
     <col min="10" max="10" width="29.42578125" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
@@ -475,7 +481,7 @@
       <c r="H4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="2"/>
+      <c r="I4" s="4"/>
       <c r="J4" s="4">
         <v>43540</v>
       </c>
@@ -489,7 +495,9 @@
         <v>14</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="J5" s="4">
+        <v>43535</v>
+      </c>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="7:11" x14ac:dyDescent="0.25">
@@ -499,11 +507,15 @@
       <c r="H6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="2"/>
+      <c r="I6" s="4">
+        <v>43535</v>
+      </c>
       <c r="J6" s="4">
         <v>43549</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="4">
+        <v>43545</v>
+      </c>
     </row>
     <row r="7" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G7" s="1" t="s">
@@ -512,9 +524,13 @@
       <c r="H7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="4">
+        <v>43545</v>
+      </c>
       <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="4">
+        <v>43545</v>
+      </c>
     </row>
     <row r="8" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G8" s="1" t="s">
@@ -523,8 +539,12 @@
       <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
+      <c r="I8" s="4">
+        <v>43531</v>
+      </c>
+      <c r="J8" s="4">
+        <v>43535</v>
+      </c>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="7:11" x14ac:dyDescent="0.25">
@@ -534,9 +554,15 @@
       <c r="H9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="I9" s="4">
+        <v>43539</v>
+      </c>
+      <c r="J9" s="4">
+        <v>43541</v>
+      </c>
+      <c r="K9" s="4">
+        <v>43541</v>
+      </c>
     </row>
     <row r="10" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G10" s="1" t="s">
@@ -547,7 +573,9 @@
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="4">
+        <v>43542</v>
+      </c>
     </row>
     <row r="11" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G11" s="1" t="s">
@@ -556,8 +584,12 @@
       <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
+      <c r="I11" s="4">
+        <v>43546</v>
+      </c>
+      <c r="J11" s="4">
+        <v>43547</v>
+      </c>
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="7:11" x14ac:dyDescent="0.25">
@@ -567,7 +599,9 @@
       <c r="H12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I12" s="2"/>
+      <c r="I12" s="4">
+        <v>43543</v>
+      </c>
       <c r="J12" s="4">
         <v>43549</v>
       </c>
@@ -580,26 +614,36 @@
       <c r="H13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="2"/>
+      <c r="I13" s="4">
+        <v>43539</v>
+      </c>
       <c r="J13" s="4">
         <v>43542</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="4">
+        <v>43547</v>
+      </c>
+      <c r="J14" s="4">
+        <v>43548</v>
+      </c>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="7:11" x14ac:dyDescent="0.25">
       <c r="G15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>

--- a/cronogramaSegundaEntrega.xlsx
+++ b/cronogramaSegundaEntrega.xlsx
@@ -445,7 +445,7 @@
   <dimension ref="G3:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,7 +527,9 @@
       <c r="I7" s="4">
         <v>43545</v>
       </c>
-      <c r="J7" s="2"/>
+      <c r="J7" s="4">
+        <v>43545</v>
+      </c>
       <c r="K7" s="4">
         <v>43545</v>
       </c>
@@ -571,8 +573,12 @@
       <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
+      <c r="I10" s="4">
+        <v>43534</v>
+      </c>
+      <c r="J10" s="4">
+        <v>43537</v>
+      </c>
       <c r="K10" s="4">
         <v>43542</v>
       </c>
